--- a/data/pca/factorExposure/factorExposure_2013-05-09.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-09.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0007067563015520712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001901693763948202</v>
+      </c>
+      <c r="C2">
+        <v>-0.03308430604490954</v>
+      </c>
+      <c r="D2">
+        <v>-0.007680923554080428</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.001955875442181716</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006084984221821779</v>
+      </c>
+      <c r="C4">
+        <v>-0.08471212014038891</v>
+      </c>
+      <c r="D4">
+        <v>-0.07779446554715662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0004930491552428554</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01335742630213174</v>
+      </c>
+      <c r="C6">
+        <v>-0.1081061354939996</v>
+      </c>
+      <c r="D6">
+        <v>-0.03332505432180996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002581105681012164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004832386804908734</v>
+      </c>
+      <c r="C7">
+        <v>-0.05255268557520589</v>
+      </c>
+      <c r="D7">
+        <v>-0.04009368294449386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0008885569063567428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005665775164132843</v>
+      </c>
+      <c r="C8">
+        <v>-0.03673505924126245</v>
+      </c>
+      <c r="D8">
+        <v>-0.03946401248802261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005487966906317149</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004086214009612273</v>
+      </c>
+      <c r="C9">
+        <v>-0.06976333378011595</v>
+      </c>
+      <c r="D9">
+        <v>-0.07176972776996238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002013369735205746</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005667984045616852</v>
+      </c>
+      <c r="C10">
+        <v>-0.07399851185590207</v>
+      </c>
+      <c r="D10">
+        <v>0.2106156288532338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003839339654283393</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.00525041878754745</v>
+      </c>
+      <c r="C11">
+        <v>-0.07787151765180698</v>
+      </c>
+      <c r="D11">
+        <v>-0.06567618884925996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0003100181433285792</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004031527714937968</v>
+      </c>
+      <c r="C12">
+        <v>-0.06375956567141268</v>
+      </c>
+      <c r="D12">
+        <v>-0.04786762611799842</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002622502339376405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00857636627038586</v>
+      </c>
+      <c r="C13">
+        <v>-0.06913567115299502</v>
+      </c>
+      <c r="D13">
+        <v>-0.0654112951431457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002510999751491506</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001522957653867623</v>
+      </c>
+      <c r="C14">
+        <v>-0.04649522323095422</v>
+      </c>
+      <c r="D14">
+        <v>-0.01374576413091547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.002488268983219364</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005857970392730508</v>
+      </c>
+      <c r="C15">
+        <v>-0.03835436347759095</v>
+      </c>
+      <c r="D15">
+        <v>-0.03598856785777048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.00204546313860726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.0049189070360155</v>
+      </c>
+      <c r="C16">
+        <v>-0.06446774086226824</v>
+      </c>
+      <c r="D16">
+        <v>-0.04999768496565322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.000262322168507751</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008946357556022036</v>
+      </c>
+      <c r="C20">
+        <v>-0.064657625992638</v>
+      </c>
+      <c r="D20">
+        <v>-0.05626961500004497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005632754227868655</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009846482629966125</v>
+      </c>
+      <c r="C21">
+        <v>-0.02333242838888509</v>
+      </c>
+      <c r="D21">
+        <v>-0.03358927035422005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01676238420628791</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006813214356798747</v>
+      </c>
+      <c r="C22">
+        <v>-0.09258349346019666</v>
+      </c>
+      <c r="D22">
+        <v>-0.1021586703305408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01710399368441689</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006624714574873408</v>
+      </c>
+      <c r="C23">
+        <v>-0.09345847713749941</v>
+      </c>
+      <c r="D23">
+        <v>-0.1024752748722553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002943149187711541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004852572751416155</v>
+      </c>
+      <c r="C24">
+        <v>-0.0729587136769876</v>
+      </c>
+      <c r="D24">
+        <v>-0.06229278736434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004665590270802855</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002730505989941712</v>
+      </c>
+      <c r="C25">
+        <v>-0.07706534511168005</v>
+      </c>
+      <c r="D25">
+        <v>-0.06711229863889809</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.006439524045814491</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003611542723382712</v>
+      </c>
+      <c r="C26">
+        <v>-0.04021957525527808</v>
+      </c>
+      <c r="D26">
+        <v>-0.02846026493136281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007950137563164622</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0004136669942307733</v>
+      </c>
+      <c r="C28">
+        <v>-0.1245027957118247</v>
+      </c>
+      <c r="D28">
+        <v>0.3091365858104233</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002189285221163463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003253061402610973</v>
+      </c>
+      <c r="C29">
+        <v>-0.04850172158051415</v>
+      </c>
+      <c r="D29">
+        <v>-0.01400793655894061</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004422531475454685</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008787309174733226</v>
+      </c>
+      <c r="C30">
+        <v>-0.1369992220201886</v>
+      </c>
+      <c r="D30">
+        <v>-0.1096587926145248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0004152476297140993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006114476195478114</v>
+      </c>
+      <c r="C31">
+        <v>-0.04538522000875662</v>
+      </c>
+      <c r="D31">
+        <v>-0.03233753596435757</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001400434431280419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004068821696880367</v>
+      </c>
+      <c r="C32">
+        <v>-0.0410997597732193</v>
+      </c>
+      <c r="D32">
+        <v>-0.01581993894996851</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003982522635057787</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007832036198865215</v>
+      </c>
+      <c r="C33">
+        <v>-0.08270797763080033</v>
+      </c>
+      <c r="D33">
+        <v>-0.07513560135018911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004980082349345281</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003778863033735472</v>
+      </c>
+      <c r="C34">
+        <v>-0.05750918282637753</v>
+      </c>
+      <c r="D34">
+        <v>-0.04810945995623877</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002949900093836812</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.004914524711124003</v>
+      </c>
+      <c r="C35">
+        <v>-0.03863745385419843</v>
+      </c>
+      <c r="D35">
+        <v>-0.01367718412586249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004769735893499279</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001326681709027133</v>
+      </c>
+      <c r="C36">
+        <v>-0.02345905596168797</v>
+      </c>
+      <c r="D36">
+        <v>-0.02260837716699399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001766992733748952</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009237142850890594</v>
+      </c>
+      <c r="C38">
+        <v>-0.03187055623131421</v>
+      </c>
+      <c r="D38">
+        <v>-0.02175392220071068</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01338618979714564</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0009145150783454575</v>
+      </c>
+      <c r="C39">
+        <v>-0.1152087885815867</v>
+      </c>
+      <c r="D39">
+        <v>-0.08513669376046057</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008278501984782761</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002263682661661285</v>
+      </c>
+      <c r="C40">
+        <v>-0.08675174078995684</v>
+      </c>
+      <c r="D40">
+        <v>-0.02238278644903558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0006467471782681993</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007370867899130279</v>
+      </c>
+      <c r="C41">
+        <v>-0.0389335003825584</v>
+      </c>
+      <c r="D41">
+        <v>-0.03521766621198056</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003538652827373944</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.00347675718230187</v>
+      </c>
+      <c r="C43">
+        <v>-0.05003619552913365</v>
+      </c>
+      <c r="D43">
+        <v>-0.02800848322165776</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.003230463552785099</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003583944084892512</v>
+      </c>
+      <c r="C44">
+        <v>-0.1080108421681739</v>
+      </c>
+      <c r="D44">
+        <v>-0.08501803907854481</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.00279618295235354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.00229047186311131</v>
+      </c>
+      <c r="C46">
+        <v>-0.03451703666961433</v>
+      </c>
+      <c r="D46">
+        <v>-0.03147692827668744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.000769179696028003</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002724203783371946</v>
+      </c>
+      <c r="C47">
+        <v>-0.03865951534251313</v>
+      </c>
+      <c r="D47">
+        <v>-0.02181854414617843</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004046254311238531</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006387181825447267</v>
+      </c>
+      <c r="C48">
+        <v>-0.02837679254224836</v>
+      </c>
+      <c r="D48">
+        <v>-0.03198730512497563</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01282455081015322</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01424548417516669</v>
+      </c>
+      <c r="C49">
+        <v>-0.1716233056706292</v>
+      </c>
+      <c r="D49">
+        <v>-0.03228149699579286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0009382293234171101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003623879836147714</v>
+      </c>
+      <c r="C50">
+        <v>-0.04231631488563893</v>
+      </c>
+      <c r="D50">
+        <v>-0.03600017213351224</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001682629525127522</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00428306962360012</v>
+      </c>
+      <c r="C51">
+        <v>-0.01985488717642883</v>
+      </c>
+      <c r="D51">
+        <v>-0.03287155247581092</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>4.811914538652545e-05</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.0202701307038147</v>
+      </c>
+      <c r="C53">
+        <v>-0.1654635383187482</v>
+      </c>
+      <c r="D53">
+        <v>-0.04852111748002147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0002044428285837814</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008627118512572559</v>
+      </c>
+      <c r="C54">
+        <v>-0.05505036963141761</v>
+      </c>
+      <c r="D54">
+        <v>-0.04293067868076202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004363451573978668</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009286780437525123</v>
+      </c>
+      <c r="C55">
+        <v>-0.1054765809736475</v>
+      </c>
+      <c r="D55">
+        <v>-0.05240907793575179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002224341101437295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01953094104231686</v>
+      </c>
+      <c r="C56">
+        <v>-0.1713011629544393</v>
+      </c>
+      <c r="D56">
+        <v>-0.04885731556858969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008633387768165458</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01936629328191311</v>
+      </c>
+      <c r="C58">
+        <v>-0.1030357509210763</v>
+      </c>
+      <c r="D58">
+        <v>-0.07106697927763794</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.009789170597162481</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009592631038853938</v>
+      </c>
+      <c r="C59">
+        <v>-0.1687177043022437</v>
+      </c>
+      <c r="D59">
+        <v>0.281293415009461</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.00664800954250757</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02341770441136354</v>
+      </c>
+      <c r="C60">
+        <v>-0.221628239608428</v>
+      </c>
+      <c r="D60">
+        <v>-0.0288953145978024</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01439457791205134</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001962123272538573</v>
+      </c>
+      <c r="C61">
+        <v>-0.09448547745886099</v>
+      </c>
+      <c r="D61">
+        <v>-0.06362948364087119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1780328019780342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1438331653619052</v>
+      </c>
+      <c r="C62">
+        <v>-0.07824787451052369</v>
+      </c>
+      <c r="D62">
+        <v>-0.05590221394036762</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.002044128576889019</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006394720312949095</v>
+      </c>
+      <c r="C63">
+        <v>-0.05900105993831416</v>
+      </c>
+      <c r="D63">
+        <v>-0.02613627185092101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.005805732607008286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01470384124240301</v>
+      </c>
+      <c r="C64">
+        <v>-0.1023859557617863</v>
+      </c>
+      <c r="D64">
+        <v>-0.06495343354594824</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0005368181022407705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01701261823528321</v>
+      </c>
+      <c r="C65">
+        <v>-0.1149156112513196</v>
+      </c>
+      <c r="D65">
+        <v>-0.02562292613438279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.00924645836052463</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01230362785774845</v>
+      </c>
+      <c r="C66">
+        <v>-0.1534321754859601</v>
+      </c>
+      <c r="D66">
+        <v>-0.1243409272107605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002768265084853006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01536423637574879</v>
+      </c>
+      <c r="C67">
+        <v>-0.06186257993620665</v>
+      </c>
+      <c r="D67">
+        <v>-0.03275725718864667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.009698280533955394</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001238663773819319</v>
+      </c>
+      <c r="C68">
+        <v>-0.1069887794547267</v>
+      </c>
+      <c r="D68">
+        <v>0.2620854545326762</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002959103926857094</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005957044509687479</v>
+      </c>
+      <c r="C69">
+        <v>-0.04755055874725313</v>
+      </c>
+      <c r="D69">
+        <v>-0.04294215545147621</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001751980512231834</v>
+      </c>
+      <c r="C70">
+        <v>-0.002183392359570336</v>
+      </c>
+      <c r="D70">
+        <v>-0.002155142415227017</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.005647958909526041</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006156354470448769</v>
+      </c>
+      <c r="C71">
+        <v>-0.1102156737669323</v>
+      </c>
+      <c r="D71">
+        <v>0.2844381107326019</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.008825824349634926</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01554172407099598</v>
+      </c>
+      <c r="C72">
+        <v>-0.1489490969569144</v>
+      </c>
+      <c r="D72">
+        <v>-0.02203787761921888</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01175930762268893</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02932284717950031</v>
+      </c>
+      <c r="C73">
+        <v>-0.2816620732054402</v>
+      </c>
+      <c r="D73">
+        <v>-0.04746241412930935</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004794781134795307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001338010299194651</v>
+      </c>
+      <c r="C74">
+        <v>-0.1043941768665947</v>
+      </c>
+      <c r="D74">
+        <v>-0.0443796936052954</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.006509903775378259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.0105963372019651</v>
+      </c>
+      <c r="C75">
+        <v>-0.1306850878480924</v>
+      </c>
+      <c r="D75">
+        <v>-0.03161606394942886</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01146747193898295</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02121803872667579</v>
+      </c>
+      <c r="C76">
+        <v>-0.1463809725930927</v>
+      </c>
+      <c r="D76">
+        <v>-0.07234058550127291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.0009559323784582162</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02428666847837512</v>
+      </c>
+      <c r="C77">
+        <v>-0.1338045225054946</v>
+      </c>
+      <c r="D77">
+        <v>-0.06444363831371407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0008882659335844744</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01427845568172449</v>
+      </c>
+      <c r="C78">
+        <v>-0.0926873469070177</v>
+      </c>
+      <c r="D78">
+        <v>-0.06714118659364719</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.025896911808908</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03689120909330271</v>
+      </c>
+      <c r="C79">
+        <v>-0.1561990588095531</v>
+      </c>
+      <c r="D79">
+        <v>-0.03534170112386169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.005131459674387293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01037499875049716</v>
+      </c>
+      <c r="C80">
+        <v>-0.0409445612715486</v>
+      </c>
+      <c r="D80">
+        <v>-0.03294204162820377</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001952333505071012</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01456641241903059</v>
+      </c>
+      <c r="C81">
+        <v>-0.1219641089546338</v>
+      </c>
+      <c r="D81">
+        <v>-0.05785987489929406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005375344987051021</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01952665152349797</v>
+      </c>
+      <c r="C82">
+        <v>-0.1419797704713578</v>
+      </c>
+      <c r="D82">
+        <v>-0.04636298765561443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.007786968781200963</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009915354626960093</v>
+      </c>
+      <c r="C83">
+        <v>-0.05663565714167647</v>
+      </c>
+      <c r="D83">
+        <v>-0.04757030346814075</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01355125904022168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01169361921588438</v>
+      </c>
+      <c r="C84">
+        <v>-0.03168063251744566</v>
+      </c>
+      <c r="D84">
+        <v>0.001574620122399225</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01411022220969091</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02790733521477171</v>
+      </c>
+      <c r="C85">
+        <v>-0.1277737149072158</v>
+      </c>
+      <c r="D85">
+        <v>-0.05127586515165644</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.003029994173318291</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005489610395001225</v>
+      </c>
+      <c r="C86">
+        <v>-0.04918569705630409</v>
+      </c>
+      <c r="D86">
+        <v>-0.02121988184398977</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.008243700679494087</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01020469415805422</v>
+      </c>
+      <c r="C87">
+        <v>-0.128630323530777</v>
+      </c>
+      <c r="D87">
+        <v>-0.07951117221027455</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01537131842142897</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002838283560654681</v>
+      </c>
+      <c r="C88">
+        <v>-0.06869304987443101</v>
+      </c>
+      <c r="D88">
+        <v>-0.01612187477125872</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01860588524883837</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0007969294988902867</v>
+      </c>
+      <c r="C89">
+        <v>-0.1616995614196715</v>
+      </c>
+      <c r="D89">
+        <v>0.3410673386173823</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.006783699868215321</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007481912696685062</v>
+      </c>
+      <c r="C90">
+        <v>-0.140155405669525</v>
+      </c>
+      <c r="D90">
+        <v>0.3194622038191736</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0008197564543646549</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01021089982237568</v>
+      </c>
+      <c r="C91">
+        <v>-0.1048619061968147</v>
+      </c>
+      <c r="D91">
+        <v>-0.02076262180701849</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01543890081166618</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.000641109088692492</v>
+      </c>
+      <c r="C92">
+        <v>-0.1499388776039137</v>
+      </c>
+      <c r="D92">
+        <v>0.3277178529477579</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003958723905091443</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005407200913982968</v>
+      </c>
+      <c r="C93">
+        <v>-0.1240941868760057</v>
+      </c>
+      <c r="D93">
+        <v>0.3131916792062602</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.00378166962925672</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02223134815906128</v>
+      </c>
+      <c r="C94">
+        <v>-0.155611468410795</v>
+      </c>
+      <c r="D94">
+        <v>-0.03455048767075535</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004920398863029967</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01608879496518723</v>
+      </c>
+      <c r="C95">
+        <v>-0.123613361981124</v>
+      </c>
+      <c r="D95">
+        <v>-0.06959115333788739</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.003725926400174547</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03472502719826656</v>
+      </c>
+      <c r="C97">
+        <v>-0.1789764069960957</v>
+      </c>
+      <c r="D97">
+        <v>-0.04122521445191226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.008127700989668687</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03648436286327505</v>
+      </c>
+      <c r="C98">
+        <v>-0.2545744606104413</v>
+      </c>
+      <c r="D98">
+        <v>-0.04470927696328512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9815958907474682</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.982671837022453</v>
+      </c>
+      <c r="C99">
+        <v>0.1102433051869388</v>
+      </c>
+      <c r="D99">
+        <v>0.03208548721745993</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002147818962246477</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003296181981743311</v>
+      </c>
+      <c r="C101">
+        <v>-0.04852530411059353</v>
+      </c>
+      <c r="D101">
+        <v>-0.01440523705786242</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
